--- a/medicine/Sexualité et sexologie/Destricted/Destricted.xlsx
+++ b/medicine/Sexualité et sexologie/Destricted/Destricted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Destricted est un film collectif regroupant sept courts métrages ayant pour sujet le sexe et l'art.
@@ -523,7 +535,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ressources relatives à l'audiovisuel : AllMovie Allociné Ciné-Ressources Cinémathèque québécoise IMDb LUMIERE Movie Review Query Engine OFDb Rotten Tomatoes The Movie Database 
  Portail des années 2000   Portail de la sexualité et de la sexologie   Portail du cinéma américain                   </t>
